--- a/SE_Examples/Red1_SE3.xlsx
+++ b/SE_Examples/Red1_SE3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SENSEI\StateEstimation_Red1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9852E9-D09D-4261-806E-4DB5582931F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A36F485-BEC4-4EFD-BC4D-5EEA9CCDF163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C23E806F-D789-4BD7-A668-F96CCEAEA961}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medidas SIN ruido" sheetId="4" r:id="rId1"/>
+    <sheet name="Valores_REALES" sheetId="4" r:id="rId1"/>
     <sheet name="MEDIDAS" sheetId="5" r:id="rId2"/>
-    <sheet name="Valores Ajustados" sheetId="1" r:id="rId3"/>
+    <sheet name="Valores_Ajustados" sheetId="1" r:id="rId3"/>
     <sheet name="Residuos Normalizados" sheetId="3" r:id="rId4"/>
     <sheet name="CV posterior" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -41,22 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
-  <si>
-    <t>Dem(J1)</t>
-  </si>
-  <si>
-    <t>Dem(J2)</t>
-  </si>
-  <si>
-    <t>Niv.ini(T1)</t>
-  </si>
-  <si>
-    <t>Pr(J1)</t>
-  </si>
-  <si>
-    <t>Niv.fin(T1)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>0:00-1:00</t>
   </si>
@@ -104,6 +89,30 @@
   </si>
   <si>
     <t>Valores simulados + RUIDO (acorde al CV)</t>
+  </si>
+  <si>
+    <t>COEF. CORR. VALORES REALES vs AJUSTADOS</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Niv.ini</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Niv.fin</t>
   </si>
 </sst>
 </file>
@@ -211,17 +220,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -557,207 +556,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1731E5-F715-4D57-9598-D2F4785A38BE}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="6">
         <v>0</v>
       </c>
-      <c r="C1" s="6">
+      <c r="D1" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="6">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>0.125</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="6">
         <v>0.16666666666666699</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="6">
         <v>0.20833333333333301</v>
       </c>
-      <c r="H1" s="6">
+      <c r="I1" s="6">
         <v>0.25</v>
       </c>
-      <c r="I1" s="6">
+      <c r="J1" s="6">
         <v>0.29166666666666702</v>
       </c>
-      <c r="J1" s="6">
+      <c r="K1" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K1" s="6">
+      <c r="L1" s="6">
         <v>0.375</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18.2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.100000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.7</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.7</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6.3</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.9004999999999992</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.7911000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.6716999999999995</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.5424000000000007</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.4280000000000008</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.3484999999999996</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.2788000000000004</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.1892999999999994</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9.0947999999999993</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.9903999999999993</v>
       </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>10.268000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.5175000000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.5434999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3485</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.7535999999999996</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14.3445</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16.254999999999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11.9811</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10.701700000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.0641999999999996</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -767,158 +782,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53FE7EE-5620-4965-841A-115205AD91AA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I1" s="6">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="L1" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M1" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="N1" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E1" s="6">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="F1" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="G1" s="6">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="H1" s="6">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="I1" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="J1" s="6">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="K1" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L1" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="M1" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
         <v>0.05</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16.2578</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.135899999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16.015699999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18.360099999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.016500000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11.2712</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9.9359000000000002</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12.2293</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>12.758699999999999</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.9376</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.05</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.1943999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6.6288</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.3257000000000003</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.0771999999999995</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.4542000000000002</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.8750999999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.0968</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.8334999999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6.0602</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.8691000000000004</v>
       </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.02</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>10.101599999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.7813999999999997</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.8600999999999992</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.049799999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.3986999999999998</v>
-      </c>
-      <c r="H4" s="10">
-        <v>15</v>
       </c>
       <c r="I4" s="10">
         <v>15</v>
@@ -935,54 +960,60 @@
       <c r="M4" s="10">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="10">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10.384399999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.6795</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4.4372999999999996</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.3655999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.8486000000000002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14.3058</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>16.187999999999999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11.8881</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11.016400000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8.0810999999999993</v>
       </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -993,218 +1024,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946F6A86-CCF0-4237-BA84-63637620A98A}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" customWidth="1"/>
+    <col min="14" max="14" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>14.105821000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15.424080999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.689108000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18.022753999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.021678000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.784978000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.783516000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13.150278999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.735953</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16.061281000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <f>CORREL(Valores_REALES!C2:L2,Valores_Ajustados!C2:L2)</f>
+        <v>0.98555655670405284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>5.8821320000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.5087299999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.4665860000000004</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8.0118930000000006</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.2633320000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.9711350000000003</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.2408029999999997</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.0429969999999997</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6.28057</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6.2454879999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <f>CORREL(Valores_REALES!C3:L3, Valores_Ajustados!C3:L3)</f>
+        <v>0.97141400297906666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>10.038531000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.9593769999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.9199909999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.7438789999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.04199</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10.27952</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.490459</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.682062</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10.825984999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10.938119</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f>CORREL(Valores_REALES!C4:L4, Valores_Ajustados!C4:L4)</f>
+        <v>-0.87524461548023702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>10.321842</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.6689299999999996</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.4404589999999997</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3655269999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.8428060000000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14.384987000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16.406012</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11.958213000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11.072964000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.1295380000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <f>CORREL(Valores_REALES!C5:L5, Valores_Ajustados!C5:L5)</f>
+        <v>0.99965448732431605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>9.9391180000000006</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9.8502919999999996</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.799849</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.6143929999999997</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9.9261789999999994</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10.196180999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10.415734</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10.586601999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10.726431</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10.827173</v>
       </c>
     </row>
@@ -1215,228 +1286,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCB7D6A-9CB1-448C-AD31-4E3170E806D3}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2.8835329999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.96247199999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.92838500000000002</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.40206700000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.2816240000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.049328</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-2.0431720000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-1.7128730000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1.7292959999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-3.334991</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>2.8835289999999998</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.96247300000000002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.92837700000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.402057</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.2817080000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.0492680000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-2.0431170000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.71282</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.7292419999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-3.3349250000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>0.43184400000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.25081900000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.2520340000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.233174</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-17.497367000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-14.934937</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-13.203544000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-13.757954</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-13.400926</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-12.835319999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>2.8954909999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.96006100000000005</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.95465900000000004</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.44077899999999998</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.01976</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-1.221004</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-2.1931159999999998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-1.88191</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.898846</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-3.509919</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>-1.147186</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.0678999999999997E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.424274</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.2927789999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17.594574999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16.597455</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15.787801</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15.162046</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14.650914999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14.280018999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K6">
+  <conditionalFormatting sqref="C2:L6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-3</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>-3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1445,218 +1535,237 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226E544-F501-402F-9CD2-68145F2977EF}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2.2844E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.0899000000000001E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.0337000000000001E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.0670000000000001E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.1742999999999998E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.3675999999999999E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.5346E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.2141999999999998E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.1551000000000001E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.7625999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4.9331E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.7176000000000003E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4.4651999999999997E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4.6156000000000003E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.7039999999999998E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.5442000000000003E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.5351000000000002E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.3818000000000003E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4.3770000000000003E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4.3372000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
         <v>1.3918E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.1379999999999999E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.9050000000000006E-3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8.907E-3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.2640000000000005E-3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.2179999999999996E-3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6.8230000000000001E-3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>1.4945E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.4952E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.4970000000000001E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.4983E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.4219000000000001E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.3502999999999999E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.4583E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.4678999999999999E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.4814000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>1.4003E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.1464999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.9939999999999994E-3</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8.9980000000000008E-3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.3320000000000009E-3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.7409999999999996E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.2399999999999999E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6.8580000000000004E-3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.5360000000000001E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>6.2719999999999998E-3</v>
       </c>
     </row>
